--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Trf-Tfrc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Trf-Tfrc.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>14.52107966666667</v>
+        <v>1.600481666666667</v>
       </c>
       <c r="H2">
-        <v>43.563239</v>
+        <v>4.801445</v>
       </c>
       <c r="I2">
-        <v>0.2237994865827619</v>
+        <v>0.01283248898116485</v>
       </c>
       <c r="J2">
-        <v>0.2237994865827619</v>
+        <v>0.01283248898116485</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.646565</v>
+        <v>5.748897666666667</v>
       </c>
       <c r="N2">
-        <v>82.939695</v>
+        <v>17.246693</v>
       </c>
       <c r="O2">
-        <v>0.4490272892980421</v>
+        <v>0.1521183006988773</v>
       </c>
       <c r="P2">
-        <v>0.4490272892980421</v>
+        <v>0.1521183006988773</v>
       </c>
       <c r="Q2">
-        <v>401.4579728746783</v>
+        <v>9.20100531904278</v>
       </c>
       <c r="R2">
-        <v>3613.121755872105</v>
+        <v>82.809047871385</v>
       </c>
       <c r="S2">
-        <v>0.1004920768065511</v>
+        <v>0.001952056417551864</v>
       </c>
       <c r="T2">
-        <v>0.1004920768065511</v>
+        <v>0.001952056417551864</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>14.52107966666667</v>
+        <v>1.600481666666667</v>
       </c>
       <c r="H3">
-        <v>43.563239</v>
+        <v>4.801445</v>
       </c>
       <c r="I3">
-        <v>0.2237994865827619</v>
+        <v>0.01283248898116485</v>
       </c>
       <c r="J3">
-        <v>0.2237994865827619</v>
+        <v>0.01283248898116485</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.237794</v>
       </c>
       <c r="O3">
-        <v>0.06084030303595646</v>
+        <v>0.09911895149313778</v>
       </c>
       <c r="P3">
-        <v>0.06084030303595646</v>
+        <v>0.09911895149313779</v>
       </c>
       <c r="Q3">
-        <v>54.39496731719623</v>
+        <v>5.995294423592223</v>
       </c>
       <c r="R3">
-        <v>489.5547058547661</v>
+        <v>53.95764981233</v>
       </c>
       <c r="S3">
-        <v>0.0136160285829867</v>
+        <v>0.001271942852860304</v>
       </c>
       <c r="T3">
-        <v>0.0136160285829867</v>
+        <v>0.001271942852860304</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>14.52107966666667</v>
+        <v>1.600481666666667</v>
       </c>
       <c r="H4">
-        <v>43.563239</v>
+        <v>4.801445</v>
       </c>
       <c r="I4">
-        <v>0.2237994865827619</v>
+        <v>0.01283248898116485</v>
       </c>
       <c r="J4">
-        <v>0.2237994865827619</v>
+        <v>0.01283248898116485</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.04902966666666</v>
+        <v>16.052884</v>
       </c>
       <c r="N4">
-        <v>45.14708899999999</v>
+        <v>48.158652</v>
       </c>
       <c r="O4">
-        <v>0.2444218657105919</v>
+        <v>0.4247662033636586</v>
       </c>
       <c r="P4">
-        <v>0.2444218657105919</v>
+        <v>0.4247662033636586</v>
       </c>
       <c r="Q4">
-        <v>218.5281586956968</v>
+        <v>25.69234653912667</v>
       </c>
       <c r="R4">
-        <v>1966.753428261271</v>
+        <v>231.23111885214</v>
       </c>
       <c r="S4">
-        <v>0.05470148805563125</v>
+        <v>0.005450807624235375</v>
       </c>
       <c r="T4">
-        <v>0.05470148805563125</v>
+        <v>0.005450807624235375</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>14.52107966666667</v>
+        <v>1.600481666666667</v>
       </c>
       <c r="H5">
-        <v>43.563239</v>
+        <v>4.801445</v>
       </c>
       <c r="I5">
-        <v>0.2237994865827619</v>
+        <v>0.01283248898116485</v>
       </c>
       <c r="J5">
-        <v>0.2237994865827619</v>
+        <v>0.01283248898116485</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.12837333333333</v>
+        <v>12.24456866666667</v>
       </c>
       <c r="N5">
-        <v>45.38512</v>
+        <v>36.733706</v>
       </c>
       <c r="O5">
-        <v>0.2457105419554094</v>
+        <v>0.3239965444443264</v>
       </c>
       <c r="P5">
-        <v>0.2457105419554094</v>
+        <v>0.3239965444443264</v>
       </c>
       <c r="Q5">
-        <v>219.6803144004089</v>
+        <v>19.59720766724111</v>
       </c>
       <c r="R5">
-        <v>1977.12282960368</v>
+        <v>176.37486900517</v>
       </c>
       <c r="S5">
-        <v>0.0549898931375928</v>
+        <v>0.004157682086517305</v>
       </c>
       <c r="T5">
-        <v>0.0549898931375928</v>
+        <v>0.004157682086517305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>27.702705</v>
       </c>
       <c r="I6">
-        <v>0.1423184156704627</v>
+        <v>0.07403909795092109</v>
       </c>
       <c r="J6">
-        <v>0.1423184156704627</v>
+        <v>0.07403909795092109</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.646565</v>
+        <v>5.748897666666667</v>
       </c>
       <c r="N6">
-        <v>82.939695</v>
+        <v>17.246693</v>
       </c>
       <c r="O6">
-        <v>0.4490272892980421</v>
+        <v>0.1521183006988773</v>
       </c>
       <c r="P6">
-        <v>0.4490272892980421</v>
+        <v>0.1521183006988773</v>
       </c>
       <c r="Q6">
-        <v>255.294878152775</v>
+        <v>53.08667204495167</v>
       </c>
       <c r="R6">
-        <v>2297.653903374975</v>
+        <v>477.780048404565</v>
       </c>
       <c r="S6">
-        <v>0.06390485240569985</v>
+        <v>0.01126270176557184</v>
       </c>
       <c r="T6">
-        <v>0.06390485240569985</v>
+        <v>0.01126270176557185</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>27.702705</v>
       </c>
       <c r="I7">
-        <v>0.1423184156704627</v>
+        <v>0.07403909795092109</v>
       </c>
       <c r="J7">
-        <v>0.1423184156704627</v>
+        <v>0.07403909795092109</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>11.237794</v>
       </c>
       <c r="O7">
-        <v>0.06084030303595646</v>
+        <v>0.09911895149313778</v>
       </c>
       <c r="P7">
-        <v>0.06084030303595646</v>
+        <v>0.09911895149313779</v>
       </c>
       <c r="Q7">
         <v>34.59081022586334</v>
@@ -883,10 +883,10 @@
         <v>311.31729203277</v>
       </c>
       <c r="S7">
-        <v>0.008658695536988163</v>
+        <v>0.007338677758393024</v>
       </c>
       <c r="T7">
-        <v>0.008658695536988163</v>
+        <v>0.007338677758393026</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>27.702705</v>
       </c>
       <c r="I8">
-        <v>0.1423184156704627</v>
+        <v>0.07403909795092109</v>
       </c>
       <c r="J8">
-        <v>0.1423184156704627</v>
+        <v>0.07403909795092109</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.04902966666666</v>
+        <v>16.052884</v>
       </c>
       <c r="N8">
-        <v>45.14708899999999</v>
+        <v>48.158652</v>
       </c>
       <c r="O8">
-        <v>0.2444218657105919</v>
+        <v>0.4247662033636586</v>
       </c>
       <c r="P8">
-        <v>0.2444218657105919</v>
+        <v>0.4247662033636586</v>
       </c>
       <c r="Q8">
-        <v>138.9662764639716</v>
+        <v>148.23610328374</v>
       </c>
       <c r="R8">
-        <v>1250.696488175745</v>
+        <v>1334.12492955366</v>
       </c>
       <c r="S8">
-        <v>0.03478573268315003</v>
+        <v>0.03144930653708278</v>
       </c>
       <c r="T8">
-        <v>0.03478573268315003</v>
+        <v>0.03144930653708278</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>27.702705</v>
       </c>
       <c r="I9">
-        <v>0.1423184156704627</v>
+        <v>0.07403909795092109</v>
       </c>
       <c r="J9">
-        <v>0.1423184156704627</v>
+        <v>0.07403909795092109</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.12837333333333</v>
+        <v>12.24456866666667</v>
       </c>
       <c r="N9">
-        <v>45.38512</v>
+        <v>36.733706</v>
       </c>
       <c r="O9">
-        <v>0.2457105419554094</v>
+        <v>0.3239965444443264</v>
       </c>
       <c r="P9">
-        <v>0.2457105419554094</v>
+        <v>0.3239965444443264</v>
       </c>
       <c r="Q9">
-        <v>139.6989545277333</v>
+        <v>113.0692245416367</v>
       </c>
       <c r="R9">
-        <v>1257.2905907496</v>
+        <v>1017.62302087473</v>
       </c>
       <c r="S9">
-        <v>0.03496913504462461</v>
+        <v>0.02398841188987344</v>
       </c>
       <c r="T9">
-        <v>0.03496913504462461</v>
+        <v>0.02398841188987344</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9554203333333334</v>
+        <v>1.276267</v>
       </c>
       <c r="H10">
-        <v>2.866261</v>
+        <v>3.828801</v>
       </c>
       <c r="I10">
-        <v>0.01472497809936019</v>
+        <v>0.01023297083348303</v>
       </c>
       <c r="J10">
-        <v>0.01472497809936019</v>
+        <v>0.01023297083348304</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.646565</v>
+        <v>5.748897666666667</v>
       </c>
       <c r="N10">
-        <v>82.939695</v>
+        <v>17.246693</v>
       </c>
       <c r="O10">
-        <v>0.4490272892980421</v>
+        <v>0.1521183006988773</v>
       </c>
       <c r="P10">
-        <v>0.4490272892980421</v>
+        <v>0.1521183006988773</v>
       </c>
       <c r="Q10">
-        <v>26.41409034782167</v>
+        <v>7.337128378343667</v>
       </c>
       <c r="R10">
-        <v>237.726813130395</v>
+        <v>66.034155405093</v>
       </c>
       <c r="S10">
-        <v>0.006611917000928742</v>
+        <v>0.001556622134290613</v>
       </c>
       <c r="T10">
-        <v>0.006611917000928742</v>
+        <v>0.001556622134290613</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9554203333333334</v>
+        <v>1.276267</v>
       </c>
       <c r="H11">
-        <v>2.866261</v>
+        <v>3.828801</v>
       </c>
       <c r="I11">
-        <v>0.01472497809936019</v>
+        <v>0.01023297083348303</v>
       </c>
       <c r="J11">
-        <v>0.01472497809936019</v>
+        <v>0.01023297083348304</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>11.237794</v>
       </c>
       <c r="O11">
-        <v>0.06084030303595646</v>
+        <v>0.09911895149313778</v>
       </c>
       <c r="P11">
-        <v>0.06084030303595646</v>
+        <v>0.09911895149313779</v>
       </c>
       <c r="Q11">
-        <v>3.578938963137112</v>
+        <v>4.780808544999334</v>
       </c>
       <c r="R11">
-        <v>32.210450668234</v>
+        <v>43.02727690499401</v>
       </c>
       <c r="S11">
-        <v>0.0008958721297628961</v>
+        <v>0.001014281339674698</v>
       </c>
       <c r="T11">
-        <v>0.0008958721297628961</v>
+        <v>0.001014281339674699</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9554203333333334</v>
+        <v>1.276267</v>
       </c>
       <c r="H12">
-        <v>2.866261</v>
+        <v>3.828801</v>
       </c>
       <c r="I12">
-        <v>0.01472497809936019</v>
+        <v>0.01023297083348303</v>
       </c>
       <c r="J12">
-        <v>0.01472497809936019</v>
+        <v>0.01023297083348304</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.04902966666666</v>
+        <v>16.052884</v>
       </c>
       <c r="N12">
-        <v>45.14708899999999</v>
+        <v>48.158652</v>
       </c>
       <c r="O12">
-        <v>0.2444218657105919</v>
+        <v>0.4247662033636586</v>
       </c>
       <c r="P12">
-        <v>0.2444218657105919</v>
+        <v>0.4247662033636586</v>
       </c>
       <c r="Q12">
-        <v>14.37814894046989</v>
+        <v>20.487766104028</v>
       </c>
       <c r="R12">
-        <v>129.403340464229</v>
+        <v>184.389894936252</v>
       </c>
       <c r="S12">
-        <v>0.003599106619593223</v>
+        <v>0.00434662017006964</v>
       </c>
       <c r="T12">
-        <v>0.003599106619593223</v>
+        <v>0.004346620170069642</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9554203333333334</v>
+        <v>1.276267</v>
       </c>
       <c r="H13">
-        <v>2.866261</v>
+        <v>3.828801</v>
       </c>
       <c r="I13">
-        <v>0.01472497809936019</v>
+        <v>0.01023297083348303</v>
       </c>
       <c r="J13">
-        <v>0.01472497809936019</v>
+        <v>0.01023297083348304</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.12837333333333</v>
+        <v>12.24456866666667</v>
       </c>
       <c r="N13">
-        <v>45.38512</v>
+        <v>36.733706</v>
       </c>
       <c r="O13">
-        <v>0.2457105419554094</v>
+        <v>0.3239965444443264</v>
       </c>
       <c r="P13">
-        <v>0.2457105419554094</v>
+        <v>0.3239965444443264</v>
       </c>
       <c r="Q13">
-        <v>14.45395549292445</v>
+        <v>15.62733891850067</v>
       </c>
       <c r="R13">
-        <v>130.08559943632</v>
+        <v>140.646050266506</v>
       </c>
       <c r="S13">
-        <v>0.003618082349075327</v>
+        <v>0.003315447189448081</v>
       </c>
       <c r="T13">
-        <v>0.003618082349075326</v>
+        <v>0.003315447189448081</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>40.17359466666667</v>
+        <v>112.6100793333333</v>
       </c>
       <c r="H14">
-        <v>120.520784</v>
+        <v>337.830238</v>
       </c>
       <c r="I14">
-        <v>0.6191571196474153</v>
+        <v>0.902895442234431</v>
       </c>
       <c r="J14">
-        <v>0.6191571196474153</v>
+        <v>0.9028954422344311</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>27.646565</v>
+        <v>5.748897666666667</v>
       </c>
       <c r="N14">
-        <v>82.939695</v>
+        <v>17.246693</v>
       </c>
       <c r="O14">
-        <v>0.4490272892980421</v>
+        <v>0.1521183006988773</v>
       </c>
       <c r="P14">
-        <v>0.4490272892980421</v>
+        <v>0.1521183006988773</v>
       </c>
       <c r="Q14">
-        <v>1110.661896235654</v>
+        <v>647.3838223225482</v>
       </c>
       <c r="R14">
-        <v>9995.957066120882</v>
+        <v>5826.454400902934</v>
       </c>
       <c r="S14">
-        <v>0.2780184430848625</v>
+        <v>0.137346920381463</v>
       </c>
       <c r="T14">
-        <v>0.2780184430848625</v>
+        <v>0.137346920381463</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>40.17359466666667</v>
+        <v>112.6100793333333</v>
       </c>
       <c r="H15">
-        <v>120.520784</v>
+        <v>337.830238</v>
       </c>
       <c r="I15">
-        <v>0.6191571196474153</v>
+        <v>0.902895442234431</v>
       </c>
       <c r="J15">
-        <v>0.6191571196474153</v>
+        <v>0.9028954422344311</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>11.237794</v>
       </c>
       <c r="O15">
-        <v>0.06084030303595646</v>
+        <v>0.09911895149313778</v>
       </c>
       <c r="P15">
-        <v>0.06084030303595646</v>
+        <v>0.09911895149313779</v>
       </c>
       <c r="Q15">
-        <v>150.4875270344996</v>
+        <v>421.8296246238858</v>
       </c>
       <c r="R15">
-        <v>1354.387743310496</v>
+        <v>3796.466621614973</v>
       </c>
       <c r="S15">
-        <v>0.0376697067862187</v>
+        <v>0.08949404954220974</v>
       </c>
       <c r="T15">
-        <v>0.0376697067862187</v>
+        <v>0.08949404954220977</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>40.17359466666667</v>
+        <v>112.6100793333333</v>
       </c>
       <c r="H16">
-        <v>120.520784</v>
+        <v>337.830238</v>
       </c>
       <c r="I16">
-        <v>0.6191571196474153</v>
+        <v>0.902895442234431</v>
       </c>
       <c r="J16">
-        <v>0.6191571196474153</v>
+        <v>0.9028954422344311</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.04902966666666</v>
+        <v>16.052884</v>
       </c>
       <c r="N16">
-        <v>45.14708899999999</v>
+        <v>48.158652</v>
       </c>
       <c r="O16">
-        <v>0.2444218657105919</v>
+        <v>0.4247662033636586</v>
       </c>
       <c r="P16">
-        <v>0.2444218657105919</v>
+        <v>0.4247662033636586</v>
       </c>
       <c r="Q16">
-        <v>604.5736179553085</v>
+        <v>1807.716540768797</v>
       </c>
       <c r="R16">
-        <v>5441.162561597776</v>
+        <v>16269.44886691918</v>
       </c>
       <c r="S16">
-        <v>0.1513355383522174</v>
+        <v>0.3835194690322707</v>
       </c>
       <c r="T16">
-        <v>0.1513355383522174</v>
+        <v>0.3835194690322709</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>40.17359466666667</v>
+        <v>112.6100793333333</v>
       </c>
       <c r="H17">
-        <v>120.520784</v>
+        <v>337.830238</v>
       </c>
       <c r="I17">
-        <v>0.6191571196474153</v>
+        <v>0.902895442234431</v>
       </c>
       <c r="J17">
-        <v>0.6191571196474153</v>
+        <v>0.9028954422344311</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.12837333333333</v>
+        <v>12.24456866666667</v>
       </c>
       <c r="N17">
-        <v>45.38512</v>
+        <v>36.733706</v>
       </c>
       <c r="O17">
-        <v>0.2457105419554094</v>
+        <v>0.3239965444443264</v>
       </c>
       <c r="P17">
-        <v>0.2457105419554094</v>
+        <v>0.3239965444443264</v>
       </c>
       <c r="Q17">
-        <v>607.7611382593424</v>
+        <v>1378.861848955781</v>
       </c>
       <c r="R17">
-        <v>5469.850244334081</v>
+        <v>12409.75664060203</v>
       </c>
       <c r="S17">
-        <v>0.1521334314241167</v>
+        <v>0.2925350032784875</v>
       </c>
       <c r="T17">
-        <v>0.1521334314241167</v>
+        <v>0.2925350032784875</v>
       </c>
     </row>
   </sheetData>
